--- a/Task-Diner.xlsx
+++ b/Task-Diner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\Learn\TaiLieu\Phan3-Bootstrap\Capstone\Lam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96165F03-DABC-421A-AFA1-00D21EAF4550}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95290879-C030-465B-BD63-410FC7FA238B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDF367B6-168F-4BB2-B005-AA06C5EAFD2A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>MẪU</t>
+  </si>
+  <si>
+    <t>BackToTop</t>
+  </si>
+  <si>
+    <t>20/10</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -345,10 +351,9 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -724,43 +729,40 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="12.44140625" style="9"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="8"/>
@@ -781,18 +783,18 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -811,32 +813,32 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>44905</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>44908</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="23">
+      <c r="F3" s="25"/>
+      <c r="G3" s="22">
         <v>44909</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>0.95</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="26"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -939,16 +941,16 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -967,16 +969,16 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -995,16 +997,16 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1023,16 +1025,16 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1051,16 +1053,16 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1079,26 +1081,26 @@
       <c r="Z10" s="8"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1117,26 +1119,26 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1155,26 +1157,26 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>1</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1193,24 +1195,26 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="15">
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="14">
         <v>0.8</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1229,26 +1233,26 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -1267,26 +1271,26 @@
       <c r="Z15" s="8"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="20">
-        <v>1</v>
+      <c r="D16" s="19">
+        <v>0.95</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1305,26 +1309,26 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1343,26 +1347,26 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -1381,16 +1385,26 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="A19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
